--- a/MNO_Transport_SeGaLog_Donnee_v2.xlsx
+++ b/MNO_Transport_SeGaLog_Donnee_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peill\Documents\Sigma_Clermont\MS_ESD\M1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peill\Documents\Sigma_Clermont\MS_ESD\M1\MNO\Transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA7CD8-7DF2-44B8-B00E-EC1A6AF06ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99A4C0-9F6A-4495-B087-F06BA0F240CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{37871C59-3D19-834B-AD87-7B4798EBC1D8}"/>
   </bookViews>
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0__\k&quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
@@ -298,7 +298,6 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot; Kg&quot;"/>
     <numFmt numFmtId="170" formatCode="#,##0.00&quot; T&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -654,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -695,9 +694,6 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -734,8 +730,6 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +742,69 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,1732 +1123,1733 @@
   <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.296875" customWidth="1"/>
+    <col min="1" max="1" width="19.296875" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="11.19921875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="61" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="63">
         <v>0.5</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="63">
         <v>2</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="63">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="65">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="65">
         <v>150</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="65">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="67">
         <v>100</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="67">
         <v>500</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="67">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="65">
         <v>0.25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="65">
         <v>0.9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="65">
         <v>4.5</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BS8" s="43"/>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="43"/>
-      <c r="BV8" s="43"/>
-      <c r="BW8" s="43"/>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
-      <c r="DA8" s="43"/>
-      <c r="DB8" s="43"/>
-      <c r="DC8" s="43"/>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
-      <c r="DI8" s="43"/>
-      <c r="DJ8" s="43"/>
-      <c r="DK8" s="43"/>
-      <c r="DL8" s="43"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="43"/>
-      <c r="DP8" s="43"/>
-      <c r="DQ8" s="43"/>
-      <c r="DR8" s="43"/>
-      <c r="DS8" s="43"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="43"/>
-      <c r="DW8" s="43"/>
-      <c r="DX8" s="43"/>
-      <c r="DY8" s="43"/>
-      <c r="DZ8" s="43"/>
-      <c r="EA8" s="43"/>
-      <c r="EB8" s="43"/>
-      <c r="EC8" s="43"/>
-      <c r="ED8" s="43"/>
-      <c r="EE8" s="43"/>
-      <c r="EF8" s="43"/>
-      <c r="EG8" s="43"/>
-      <c r="EH8" s="43"/>
-      <c r="EI8" s="43"/>
-      <c r="EJ8" s="43"/>
-      <c r="EK8" s="43"/>
-      <c r="EL8" s="43"/>
-      <c r="EM8" s="43"/>
-      <c r="EN8" s="43"/>
-      <c r="EO8" s="43"/>
-      <c r="EP8" s="43"/>
-      <c r="EQ8" s="43"/>
-      <c r="ER8" s="43"/>
-      <c r="ES8" s="43"/>
-      <c r="ET8" s="43"/>
-      <c r="EU8" s="43"/>
-      <c r="EV8" s="43"/>
-      <c r="EW8" s="43"/>
-      <c r="EX8" s="43"/>
-      <c r="EY8" s="43"/>
-      <c r="EZ8" s="43"/>
-      <c r="FA8" s="43"/>
-      <c r="FB8" s="43"/>
-      <c r="FC8" s="43"/>
-      <c r="FD8" s="43"/>
-      <c r="FE8" s="43"/>
-      <c r="FF8" s="43"/>
-      <c r="FG8" s="43"/>
-      <c r="FH8" s="43"/>
-      <c r="FI8" s="43"/>
-      <c r="FJ8" s="43"/>
-      <c r="FK8" s="43"/>
-      <c r="FL8" s="43"/>
-      <c r="FM8" s="43"/>
-      <c r="FN8" s="43"/>
-      <c r="FO8" s="43"/>
-      <c r="FP8" s="43"/>
-      <c r="FQ8" s="43"/>
-      <c r="FR8" s="43"/>
-      <c r="FS8" s="43"/>
-      <c r="FT8" s="43"/>
-      <c r="FU8" s="43"/>
-      <c r="FV8" s="43"/>
-      <c r="FW8" s="43"/>
-      <c r="FX8" s="43"/>
-      <c r="FY8" s="43"/>
-      <c r="FZ8" s="43"/>
-      <c r="GA8" s="43"/>
-      <c r="GB8" s="43"/>
-      <c r="GC8" s="43"/>
-      <c r="GD8" s="43"/>
-      <c r="GE8" s="43"/>
-      <c r="GF8" s="43"/>
-      <c r="GG8" s="43"/>
-      <c r="GH8" s="43"/>
-      <c r="GI8" s="43"/>
-      <c r="GJ8" s="43"/>
-      <c r="GK8" s="43"/>
-      <c r="GL8" s="43"/>
-      <c r="GM8" s="43"/>
-      <c r="GN8" s="43"/>
-      <c r="GO8" s="43"/>
-      <c r="GP8" s="43"/>
-      <c r="GQ8" s="43"/>
-      <c r="GR8" s="43"/>
-      <c r="GS8" s="43"/>
-      <c r="GT8" s="43"/>
-      <c r="GU8" s="43"/>
-      <c r="GV8" s="43"/>
-      <c r="GW8" s="43"/>
-      <c r="GX8" s="43"/>
-      <c r="GY8" s="43"/>
-      <c r="GZ8" s="43"/>
-      <c r="HA8" s="43"/>
-      <c r="HB8" s="43"/>
-      <c r="HC8" s="43"/>
-      <c r="HD8" s="43"/>
-      <c r="HE8" s="43"/>
-      <c r="HF8" s="43"/>
-      <c r="HG8" s="43"/>
-      <c r="HH8" s="43"/>
-      <c r="HI8" s="43"/>
-      <c r="HJ8" s="43"/>
-      <c r="HK8" s="43"/>
-      <c r="HL8" s="43"/>
-      <c r="HM8" s="43"/>
-      <c r="HN8" s="43"/>
-      <c r="HO8" s="43"/>
-      <c r="HP8" s="43"/>
-      <c r="HQ8" s="43"/>
-      <c r="HR8" s="43"/>
-      <c r="HS8" s="43"/>
-      <c r="HT8" s="43"/>
-      <c r="HU8" s="43"/>
-      <c r="HV8" s="43"/>
-      <c r="HW8" s="43"/>
-      <c r="HX8" s="43"/>
-      <c r="HY8" s="43"/>
-      <c r="HZ8" s="43"/>
-      <c r="IA8" s="43"/>
-      <c r="IB8" s="43"/>
-      <c r="IC8" s="43"/>
-      <c r="ID8" s="43"/>
-      <c r="IE8" s="43"/>
-      <c r="IF8" s="43"/>
-      <c r="IG8" s="43"/>
-      <c r="IH8" s="43"/>
-      <c r="II8" s="43"/>
-      <c r="IJ8" s="43"/>
-      <c r="IK8" s="43"/>
-      <c r="IL8" s="43"/>
-      <c r="IM8" s="43"/>
-      <c r="IN8" s="43"/>
-      <c r="IO8" s="43"/>
-      <c r="IP8" s="43"/>
-      <c r="IQ8" s="43"/>
-      <c r="IR8" s="43"/>
-      <c r="IS8" s="43"/>
-      <c r="IT8" s="43"/>
-      <c r="IU8" s="43"/>
-      <c r="IV8" s="44"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="69"/>
+      <c r="BO8" s="69"/>
+      <c r="BP8" s="69"/>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="69"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="69"/>
+      <c r="BU8" s="69"/>
+      <c r="BV8" s="69"/>
+      <c r="BW8" s="69"/>
+      <c r="BX8" s="69"/>
+      <c r="BY8" s="69"/>
+      <c r="BZ8" s="69"/>
+      <c r="CA8" s="69"/>
+      <c r="CB8" s="69"/>
+      <c r="CC8" s="69"/>
+      <c r="CD8" s="69"/>
+      <c r="CE8" s="69"/>
+      <c r="CF8" s="69"/>
+      <c r="CG8" s="69"/>
+      <c r="CH8" s="69"/>
+      <c r="CI8" s="69"/>
+      <c r="CJ8" s="69"/>
+      <c r="CK8" s="69"/>
+      <c r="CL8" s="69"/>
+      <c r="CM8" s="69"/>
+      <c r="CN8" s="69"/>
+      <c r="CO8" s="69"/>
+      <c r="CP8" s="69"/>
+      <c r="CQ8" s="69"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="69"/>
+      <c r="CT8" s="69"/>
+      <c r="CU8" s="69"/>
+      <c r="CV8" s="69"/>
+      <c r="CW8" s="69"/>
+      <c r="CX8" s="69"/>
+      <c r="CY8" s="69"/>
+      <c r="CZ8" s="69"/>
+      <c r="DA8" s="69"/>
+      <c r="DB8" s="69"/>
+      <c r="DC8" s="69"/>
+      <c r="DD8" s="69"/>
+      <c r="DE8" s="69"/>
+      <c r="DF8" s="69"/>
+      <c r="DG8" s="69"/>
+      <c r="DH8" s="69"/>
+      <c r="DI8" s="69"/>
+      <c r="DJ8" s="69"/>
+      <c r="DK8" s="69"/>
+      <c r="DL8" s="69"/>
+      <c r="DM8" s="69"/>
+      <c r="DN8" s="69"/>
+      <c r="DO8" s="69"/>
+      <c r="DP8" s="69"/>
+      <c r="DQ8" s="69"/>
+      <c r="DR8" s="69"/>
+      <c r="DS8" s="69"/>
+      <c r="DT8" s="69"/>
+      <c r="DU8" s="69"/>
+      <c r="DV8" s="69"/>
+      <c r="DW8" s="69"/>
+      <c r="DX8" s="69"/>
+      <c r="DY8" s="69"/>
+      <c r="DZ8" s="69"/>
+      <c r="EA8" s="69"/>
+      <c r="EB8" s="69"/>
+      <c r="EC8" s="69"/>
+      <c r="ED8" s="69"/>
+      <c r="EE8" s="69"/>
+      <c r="EF8" s="69"/>
+      <c r="EG8" s="69"/>
+      <c r="EH8" s="69"/>
+      <c r="EI8" s="69"/>
+      <c r="EJ8" s="69"/>
+      <c r="EK8" s="69"/>
+      <c r="EL8" s="69"/>
+      <c r="EM8" s="69"/>
+      <c r="EN8" s="69"/>
+      <c r="EO8" s="69"/>
+      <c r="EP8" s="69"/>
+      <c r="EQ8" s="69"/>
+      <c r="ER8" s="69"/>
+      <c r="ES8" s="69"/>
+      <c r="ET8" s="69"/>
+      <c r="EU8" s="69"/>
+      <c r="EV8" s="69"/>
+      <c r="EW8" s="69"/>
+      <c r="EX8" s="69"/>
+      <c r="EY8" s="69"/>
+      <c r="EZ8" s="69"/>
+      <c r="FA8" s="69"/>
+      <c r="FB8" s="69"/>
+      <c r="FC8" s="69"/>
+      <c r="FD8" s="69"/>
+      <c r="FE8" s="69"/>
+      <c r="FF8" s="69"/>
+      <c r="FG8" s="69"/>
+      <c r="FH8" s="69"/>
+      <c r="FI8" s="69"/>
+      <c r="FJ8" s="69"/>
+      <c r="FK8" s="69"/>
+      <c r="FL8" s="69"/>
+      <c r="FM8" s="69"/>
+      <c r="FN8" s="69"/>
+      <c r="FO8" s="69"/>
+      <c r="FP8" s="69"/>
+      <c r="FQ8" s="69"/>
+      <c r="FR8" s="69"/>
+      <c r="FS8" s="69"/>
+      <c r="FT8" s="69"/>
+      <c r="FU8" s="69"/>
+      <c r="FV8" s="69"/>
+      <c r="FW8" s="69"/>
+      <c r="FX8" s="69"/>
+      <c r="FY8" s="69"/>
+      <c r="FZ8" s="69"/>
+      <c r="GA8" s="69"/>
+      <c r="GB8" s="69"/>
+      <c r="GC8" s="69"/>
+      <c r="GD8" s="69"/>
+      <c r="GE8" s="69"/>
+      <c r="GF8" s="69"/>
+      <c r="GG8" s="69"/>
+      <c r="GH8" s="69"/>
+      <c r="GI8" s="69"/>
+      <c r="GJ8" s="69"/>
+      <c r="GK8" s="69"/>
+      <c r="GL8" s="69"/>
+      <c r="GM8" s="69"/>
+      <c r="GN8" s="69"/>
+      <c r="GO8" s="69"/>
+      <c r="GP8" s="69"/>
+      <c r="GQ8" s="69"/>
+      <c r="GR8" s="69"/>
+      <c r="GS8" s="69"/>
+      <c r="GT8" s="69"/>
+      <c r="GU8" s="69"/>
+      <c r="GV8" s="69"/>
+      <c r="GW8" s="69"/>
+      <c r="GX8" s="69"/>
+      <c r="GY8" s="69"/>
+      <c r="GZ8" s="69"/>
+      <c r="HA8" s="69"/>
+      <c r="HB8" s="69"/>
+      <c r="HC8" s="69"/>
+      <c r="HD8" s="69"/>
+      <c r="HE8" s="69"/>
+      <c r="HF8" s="69"/>
+      <c r="HG8" s="69"/>
+      <c r="HH8" s="69"/>
+      <c r="HI8" s="69"/>
+      <c r="HJ8" s="69"/>
+      <c r="HK8" s="69"/>
+      <c r="HL8" s="69"/>
+      <c r="HM8" s="69"/>
+      <c r="HN8" s="69"/>
+      <c r="HO8" s="69"/>
+      <c r="HP8" s="69"/>
+      <c r="HQ8" s="69"/>
+      <c r="HR8" s="69"/>
+      <c r="HS8" s="69"/>
+      <c r="HT8" s="69"/>
+      <c r="HU8" s="69"/>
+      <c r="HV8" s="69"/>
+      <c r="HW8" s="69"/>
+      <c r="HX8" s="69"/>
+      <c r="HY8" s="69"/>
+      <c r="HZ8" s="69"/>
+      <c r="IA8" s="69"/>
+      <c r="IB8" s="69"/>
+      <c r="IC8" s="69"/>
+      <c r="ID8" s="69"/>
+      <c r="IE8" s="69"/>
+      <c r="IF8" s="69"/>
+      <c r="IG8" s="69"/>
+      <c r="IH8" s="69"/>
+      <c r="II8" s="69"/>
+      <c r="IJ8" s="69"/>
+      <c r="IK8" s="69"/>
+      <c r="IL8" s="69"/>
+      <c r="IM8" s="69"/>
+      <c r="IN8" s="69"/>
+      <c r="IO8" s="69"/>
+      <c r="IP8" s="69"/>
+      <c r="IQ8" s="69"/>
+      <c r="IR8" s="69"/>
+      <c r="IS8" s="69"/>
+      <c r="IT8" s="69"/>
+      <c r="IU8" s="69"/>
+      <c r="IV8" s="70"/>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="59" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="61" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="63">
         <v>15.35</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="63">
         <f>$B12*B$5+B$6</f>
         <v>37.674999999999997</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="63">
         <f t="shared" ref="D12:E12" si="0">$B12*C$5+C$6</f>
         <v>180.7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="63">
         <f t="shared" si="0"/>
         <v>684.2</v>
       </c>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="65">
         <v>35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="65">
         <f t="shared" ref="C13:E17" si="1">$B13*B$5+B$6</f>
         <v>47.5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="65">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="65">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="67">
         <v>11.65</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="67">
         <f t="shared" si="1"/>
         <v>35.825000000000003</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="67">
         <f t="shared" si="1"/>
         <v>173.3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="67">
         <f t="shared" si="1"/>
         <v>639.79999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="65">
         <v>1.8</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="65">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="65">
         <f t="shared" si="1"/>
         <v>153.6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="65">
         <f t="shared" si="1"/>
         <v>521.6</v>
       </c>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="67">
         <v>36</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="67">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="67">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="67">
         <f t="shared" si="1"/>
         <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="65">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="65">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="65">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="65">
         <f t="shared" si="1"/>
         <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="59" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="63">
+        <v>0</v>
+      </c>
+      <c r="C21" s="63">
         <v>4600</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="63">
         <v>1180</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="63">
         <v>2320</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="63">
         <v>10700</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="63">
         <v>2800</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="65">
         <v>4600</v>
       </c>
-      <c r="C22" s="28">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="65">
+        <v>0</v>
+      </c>
+      <c r="D22" s="65">
         <v>1500</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="65">
         <v>4180</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="65">
         <v>3544</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="65">
         <v>3200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="67">
         <v>1180</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="67">
         <v>1500</v>
       </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="67">
         <v>3080</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="67">
         <v>11190</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="67">
         <v>2980</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="65">
         <v>2320</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="65">
         <v>4180</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="65">
         <v>3080</v>
       </c>
-      <c r="E24" s="28">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
+      <c r="E24" s="65">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65">
         <v>11150</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="65">
         <v>2800</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="67">
         <v>10700</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="67">
         <v>3544</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="67">
         <v>11190</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="67">
         <v>11150</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="F25" s="67">
+        <v>0</v>
+      </c>
+      <c r="G25" s="67">
         <v>11000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="65">
         <v>2800</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="65">
         <v>3200</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="65">
         <v>2980</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="65">
         <v>2800</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="65">
         <v>11000</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="74">
         <v>320</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="74">
         <v>270</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="74">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="59" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="50">
+        <v>0</v>
+      </c>
+      <c r="C34" s="50">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="50">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="50">
         <v>0.121</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="50">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="50">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="51">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="51">
+        <v>0</v>
+      </c>
+      <c r="D35" s="51">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="51">
         <v>0.121</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="51">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="52">
+        <v>0</v>
+      </c>
+      <c r="E36" s="52">
         <v>3.1E-2</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="52">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="51">
         <v>0.121</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="51">
         <v>0.121</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="51">
         <v>3.1E-2</v>
       </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="51">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="52">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="F38" s="52">
+        <v>0</v>
+      </c>
+      <c r="G38" s="52">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="51">
         <v>3.1E-2</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="63">
         <v>23940</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="63">
         <v>6840</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="63">
         <v>3420</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="63">
         <f>SUM(B43:D43)</f>
         <v>34200</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="63">
         <f>B43*0.5+C43*2+D43*12</f>
         <v>66690</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="65">
         <v>4560</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="65">
         <v>13680</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="65">
         <v>4560</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="65">
         <f t="shared" ref="E44:E48" si="2">SUM(B44:D44)</f>
         <v>22800</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="65">
         <f t="shared" ref="F44:F48" si="3">B44*0.5+C44*2+D44*12</f>
         <v>84360</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="67">
         <v>3420</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="67">
         <v>1710</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="67">
         <v>570</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="67">
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="67">
         <f t="shared" si="3"/>
         <v>11970</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="65">
         <v>4560</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="65">
         <v>6840</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="65">
         <v>11400</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="65">
         <f t="shared" si="2"/>
         <v>22800</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="65">
         <f t="shared" si="3"/>
         <v>152760</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="67">
         <v>2280</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="67">
         <v>9120</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="67">
         <v>11400</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="67">
         <f t="shared" si="2"/>
         <v>22800</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="67">
         <f t="shared" si="3"/>
         <v>156180</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="65">
         <v>1140</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="65">
         <v>2280</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="65">
         <v>2280</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="65">
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="65">
         <f t="shared" si="3"/>
         <v>32490</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="78">
         <f>SUM(B43:B48)</f>
         <v>39900</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="78">
         <f t="shared" ref="C49:F49" si="4">SUM(C43:C48)</f>
         <v>40470</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="78">
         <f t="shared" si="4"/>
         <v>33630</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="78">
         <f t="shared" si="4"/>
         <v>114000</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="78">
         <f t="shared" si="4"/>
         <v>504450</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="80">
         <v>50000</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="80">
         <v>100000</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="80">
         <v>250000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="82">
         <v>2000</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="82">
         <v>3000</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="82">
         <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="83">
         <v>10000</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="83">
         <v>17000</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="83">
         <v>30000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="82">
         <v>1000</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="82">
         <v>2000</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="82">
         <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="47">
+      <c r="B57" s="83">
         <v>10</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="83">
         <v>15</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="83">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="59" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="48">
+      <c r="B61" s="84">
         <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="85">
         <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="86">
         <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="85">
         <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="86">
         <v>0.85</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="85">
         <v>0.75</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="36">
-        <v>0</v>
-      </c>
-      <c r="C70" s="36">
+      <c r="B70" s="50">
+        <v>0</v>
+      </c>
+      <c r="C70" s="50">
         <v>0.01</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="50">
         <v>0.01</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="50">
         <v>0.05</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="50">
         <v>0.01</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="50">
         <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="51">
         <v>0.01</v>
       </c>
-      <c r="C71" s="37">
-        <v>0</v>
-      </c>
-      <c r="D71" s="37">
+      <c r="C71" s="51">
+        <v>0</v>
+      </c>
+      <c r="D71" s="51">
         <v>1E-3</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="51">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="51">
         <v>1E-3</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="52">
         <v>0.01</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="52">
         <v>1E-3</v>
       </c>
-      <c r="D72" s="38">
-        <v>0</v>
-      </c>
-      <c r="E72" s="38">
+      <c r="D72" s="52">
+        <v>0</v>
+      </c>
+      <c r="E72" s="52">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="52">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="51">
         <v>0.05</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="51">
         <v>0.03</v>
       </c>
-      <c r="E73" s="37">
-        <v>0</v>
-      </c>
-      <c r="F73" s="37">
+      <c r="E73" s="51">
+        <v>0</v>
+      </c>
+      <c r="F73" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G73" s="37">
+      <c r="G73" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74" s="52">
         <v>2E-3</v>
       </c>
-      <c r="C74" s="38">
+      <c r="C74" s="52">
         <v>1E-3</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74" s="52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="52">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F74" s="38">
-        <v>0</v>
-      </c>
-      <c r="G74" s="38">
+      <c r="F74" s="52">
+        <v>0</v>
+      </c>
+      <c r="G74" s="52">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="51">
         <v>0.01</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E75" s="37">
+      <c r="E75" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F75" s="37">
+      <c r="F75" s="51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G75" s="37">
+      <c r="G75" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="59" t="s">
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="59" t="s">
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="88"/>
     </row>
     <row r="79" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="58"/>
-      <c r="B79" s="39" t="s">
+      <c r="A79" s="89"/>
+      <c r="B79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="P79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="Q79" s="39" t="s">
+      <c r="Q79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="R79" s="39" t="s">
+      <c r="R79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="S79" s="39" t="s">
+      <c r="S79" s="90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80" s="92">
         <v>2.1</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="92">
         <v>2.5</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="92">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="92">
         <v>2</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="92">
         <v>2.5</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="92">
         <v>2.35</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="92">
         <v>2.75</v>
       </c>
-      <c r="I80" s="41">
+      <c r="I80" s="92">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="92">
         <v>3.2</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="92">
         <v>2.9</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="92">
         <v>4</v>
       </c>
-      <c r="M80" s="41">
+      <c r="M80" s="92">
         <v>3.8</v>
       </c>
-      <c r="N80" s="41">
+      <c r="N80" s="92">
         <v>12.5</v>
       </c>
-      <c r="O80" s="41">
+      <c r="O80" s="92">
         <v>12.2</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="92">
         <v>12.3</v>
       </c>
-      <c r="Q80" s="41">
+      <c r="Q80" s="92">
         <v>12.55</v>
       </c>
-      <c r="R80" s="41">
+      <c r="R80" s="92">
         <v>12.05</v>
       </c>
-      <c r="S80" s="41">
+      <c r="S80" s="92">
         <v>12.25</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="36">
-        <v>0</v>
-      </c>
-      <c r="C84" s="36">
+      <c r="B84" s="50">
+        <v>0</v>
+      </c>
+      <c r="C84" s="50">
         <v>0.32</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="50">
         <v>0.64</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="50">
         <v>2.12</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="50">
         <v>0.37</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="50">
         <v>2.08</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="51">
         <v>0.78</v>
       </c>
-      <c r="C85" s="37">
-        <v>0</v>
-      </c>
-      <c r="D85" s="37">
+      <c r="C85" s="51">
+        <v>0</v>
+      </c>
+      <c r="D85" s="51">
         <v>2.08</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E85" s="51">
         <v>1.08</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="51">
         <v>1.3</v>
       </c>
-      <c r="G85" s="37">
+      <c r="G85" s="51">
         <v>2.77</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="52">
         <v>0.78</v>
       </c>
-      <c r="C86" s="38">
+      <c r="C86" s="52">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D86" s="38">
-        <v>0</v>
-      </c>
-      <c r="E86" s="38">
+      <c r="D86" s="52">
+        <v>0</v>
+      </c>
+      <c r="E86" s="52">
         <v>1.7</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="52">
         <v>0.89</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="52">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="51">
         <v>0.91</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C87" s="51">
         <v>1.34</v>
       </c>
-      <c r="D87" s="37">
+      <c r="D87" s="51">
         <v>1.72</v>
       </c>
-      <c r="E87" s="37">
-        <v>0</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="E87" s="51">
+        <v>0</v>
+      </c>
+      <c r="F87" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G87" s="37">
+      <c r="G87" s="51">
         <v>0.88</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B88" s="52">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C88" s="38">
+      <c r="C88" s="52">
         <v>0.9</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="52">
         <v>0.87</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F88" s="38">
-        <v>0</v>
-      </c>
-      <c r="G88" s="38">
+      <c r="F88" s="52">
+        <v>0</v>
+      </c>
+      <c r="G88" s="52">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="51">
         <v>2.25</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="51">
         <v>2.97</v>
       </c>
-      <c r="D89" s="37">
+      <c r="D89" s="51">
         <v>2.7</v>
       </c>
-      <c r="E89" s="37">
+      <c r="E89" s="51">
         <v>1.76</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="51">
         <v>2.41</v>
       </c>
-      <c r="G89" s="37">
+      <c r="G89" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="51">
+      <c r="B93" s="50">
         <v>3.55</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="51">
         <v>1.8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="53">
+      <c r="B95" s="52">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="51">
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="53">
+      <c r="B97" s="52">
         <v>0.89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="51">
         <v>2.89</v>
       </c>
     </row>
@@ -2810,1732 +2868,1733 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E3C0BD-326E-1D4A-9606-1D503F5341FE}">
   <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="11.19921875" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="61" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="63">
         <v>0.5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="63">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="63">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="65">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="65">
         <v>150</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="65">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="67">
         <v>100</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="67">
         <v>500</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="67">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="93">
         <v>0.25</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="93">
         <v>0.9</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="94">
         <v>4.5</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BS8" s="43"/>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="43"/>
-      <c r="BV8" s="43"/>
-      <c r="BW8" s="43"/>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
-      <c r="DA8" s="43"/>
-      <c r="DB8" s="43"/>
-      <c r="DC8" s="43"/>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
-      <c r="DI8" s="43"/>
-      <c r="DJ8" s="43"/>
-      <c r="DK8" s="43"/>
-      <c r="DL8" s="43"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="43"/>
-      <c r="DP8" s="43"/>
-      <c r="DQ8" s="43"/>
-      <c r="DR8" s="43"/>
-      <c r="DS8" s="43"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="43"/>
-      <c r="DW8" s="43"/>
-      <c r="DX8" s="43"/>
-      <c r="DY8" s="43"/>
-      <c r="DZ8" s="43"/>
-      <c r="EA8" s="43"/>
-      <c r="EB8" s="43"/>
-      <c r="EC8" s="43"/>
-      <c r="ED8" s="43"/>
-      <c r="EE8" s="43"/>
-      <c r="EF8" s="43"/>
-      <c r="EG8" s="43"/>
-      <c r="EH8" s="43"/>
-      <c r="EI8" s="43"/>
-      <c r="EJ8" s="43"/>
-      <c r="EK8" s="43"/>
-      <c r="EL8" s="43"/>
-      <c r="EM8" s="43"/>
-      <c r="EN8" s="43"/>
-      <c r="EO8" s="43"/>
-      <c r="EP8" s="43"/>
-      <c r="EQ8" s="43"/>
-      <c r="ER8" s="43"/>
-      <c r="ES8" s="43"/>
-      <c r="ET8" s="43"/>
-      <c r="EU8" s="43"/>
-      <c r="EV8" s="43"/>
-      <c r="EW8" s="43"/>
-      <c r="EX8" s="43"/>
-      <c r="EY8" s="43"/>
-      <c r="EZ8" s="43"/>
-      <c r="FA8" s="43"/>
-      <c r="FB8" s="43"/>
-      <c r="FC8" s="43"/>
-      <c r="FD8" s="43"/>
-      <c r="FE8" s="43"/>
-      <c r="FF8" s="43"/>
-      <c r="FG8" s="43"/>
-      <c r="FH8" s="43"/>
-      <c r="FI8" s="43"/>
-      <c r="FJ8" s="43"/>
-      <c r="FK8" s="43"/>
-      <c r="FL8" s="43"/>
-      <c r="FM8" s="43"/>
-      <c r="FN8" s="43"/>
-      <c r="FO8" s="43"/>
-      <c r="FP8" s="43"/>
-      <c r="FQ8" s="43"/>
-      <c r="FR8" s="43"/>
-      <c r="FS8" s="43"/>
-      <c r="FT8" s="43"/>
-      <c r="FU8" s="43"/>
-      <c r="FV8" s="43"/>
-      <c r="FW8" s="43"/>
-      <c r="FX8" s="43"/>
-      <c r="FY8" s="43"/>
-      <c r="FZ8" s="43"/>
-      <c r="GA8" s="43"/>
-      <c r="GB8" s="43"/>
-      <c r="GC8" s="43"/>
-      <c r="GD8" s="43"/>
-      <c r="GE8" s="43"/>
-      <c r="GF8" s="43"/>
-      <c r="GG8" s="43"/>
-      <c r="GH8" s="43"/>
-      <c r="GI8" s="43"/>
-      <c r="GJ8" s="43"/>
-      <c r="GK8" s="43"/>
-      <c r="GL8" s="43"/>
-      <c r="GM8" s="43"/>
-      <c r="GN8" s="43"/>
-      <c r="GO8" s="43"/>
-      <c r="GP8" s="43"/>
-      <c r="GQ8" s="43"/>
-      <c r="GR8" s="43"/>
-      <c r="GS8" s="43"/>
-      <c r="GT8" s="43"/>
-      <c r="GU8" s="43"/>
-      <c r="GV8" s="43"/>
-      <c r="GW8" s="43"/>
-      <c r="GX8" s="43"/>
-      <c r="GY8" s="43"/>
-      <c r="GZ8" s="43"/>
-      <c r="HA8" s="43"/>
-      <c r="HB8" s="43"/>
-      <c r="HC8" s="43"/>
-      <c r="HD8" s="43"/>
-      <c r="HE8" s="43"/>
-      <c r="HF8" s="43"/>
-      <c r="HG8" s="43"/>
-      <c r="HH8" s="43"/>
-      <c r="HI8" s="43"/>
-      <c r="HJ8" s="43"/>
-      <c r="HK8" s="43"/>
-      <c r="HL8" s="43"/>
-      <c r="HM8" s="43"/>
-      <c r="HN8" s="43"/>
-      <c r="HO8" s="43"/>
-      <c r="HP8" s="43"/>
-      <c r="HQ8" s="43"/>
-      <c r="HR8" s="43"/>
-      <c r="HS8" s="43"/>
-      <c r="HT8" s="43"/>
-      <c r="HU8" s="43"/>
-      <c r="HV8" s="43"/>
-      <c r="HW8" s="43"/>
-      <c r="HX8" s="43"/>
-      <c r="HY8" s="43"/>
-      <c r="HZ8" s="43"/>
-      <c r="IA8" s="43"/>
-      <c r="IB8" s="43"/>
-      <c r="IC8" s="43"/>
-      <c r="ID8" s="43"/>
-      <c r="IE8" s="43"/>
-      <c r="IF8" s="43"/>
-      <c r="IG8" s="43"/>
-      <c r="IH8" s="43"/>
-      <c r="II8" s="43"/>
-      <c r="IJ8" s="43"/>
-      <c r="IK8" s="43"/>
-      <c r="IL8" s="43"/>
-      <c r="IM8" s="43"/>
-      <c r="IN8" s="43"/>
-      <c r="IO8" s="43"/>
-      <c r="IP8" s="43"/>
-      <c r="IQ8" s="43"/>
-      <c r="IR8" s="43"/>
-      <c r="IS8" s="43"/>
-      <c r="IT8" s="43"/>
-      <c r="IU8" s="43"/>
-      <c r="IV8" s="44"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="69"/>
+      <c r="BN8" s="69"/>
+      <c r="BO8" s="69"/>
+      <c r="BP8" s="69"/>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="69"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="69"/>
+      <c r="BU8" s="69"/>
+      <c r="BV8" s="69"/>
+      <c r="BW8" s="69"/>
+      <c r="BX8" s="69"/>
+      <c r="BY8" s="69"/>
+      <c r="BZ8" s="69"/>
+      <c r="CA8" s="69"/>
+      <c r="CB8" s="69"/>
+      <c r="CC8" s="69"/>
+      <c r="CD8" s="69"/>
+      <c r="CE8" s="69"/>
+      <c r="CF8" s="69"/>
+      <c r="CG8" s="69"/>
+      <c r="CH8" s="69"/>
+      <c r="CI8" s="69"/>
+      <c r="CJ8" s="69"/>
+      <c r="CK8" s="69"/>
+      <c r="CL8" s="69"/>
+      <c r="CM8" s="69"/>
+      <c r="CN8" s="69"/>
+      <c r="CO8" s="69"/>
+      <c r="CP8" s="69"/>
+      <c r="CQ8" s="69"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="69"/>
+      <c r="CT8" s="69"/>
+      <c r="CU8" s="69"/>
+      <c r="CV8" s="69"/>
+      <c r="CW8" s="69"/>
+      <c r="CX8" s="69"/>
+      <c r="CY8" s="69"/>
+      <c r="CZ8" s="69"/>
+      <c r="DA8" s="69"/>
+      <c r="DB8" s="69"/>
+      <c r="DC8" s="69"/>
+      <c r="DD8" s="69"/>
+      <c r="DE8" s="69"/>
+      <c r="DF8" s="69"/>
+      <c r="DG8" s="69"/>
+      <c r="DH8" s="69"/>
+      <c r="DI8" s="69"/>
+      <c r="DJ8" s="69"/>
+      <c r="DK8" s="69"/>
+      <c r="DL8" s="69"/>
+      <c r="DM8" s="69"/>
+      <c r="DN8" s="69"/>
+      <c r="DO8" s="69"/>
+      <c r="DP8" s="69"/>
+      <c r="DQ8" s="69"/>
+      <c r="DR8" s="69"/>
+      <c r="DS8" s="69"/>
+      <c r="DT8" s="69"/>
+      <c r="DU8" s="69"/>
+      <c r="DV8" s="69"/>
+      <c r="DW8" s="69"/>
+      <c r="DX8" s="69"/>
+      <c r="DY8" s="69"/>
+      <c r="DZ8" s="69"/>
+      <c r="EA8" s="69"/>
+      <c r="EB8" s="69"/>
+      <c r="EC8" s="69"/>
+      <c r="ED8" s="69"/>
+      <c r="EE8" s="69"/>
+      <c r="EF8" s="69"/>
+      <c r="EG8" s="69"/>
+      <c r="EH8" s="69"/>
+      <c r="EI8" s="69"/>
+      <c r="EJ8" s="69"/>
+      <c r="EK8" s="69"/>
+      <c r="EL8" s="69"/>
+      <c r="EM8" s="69"/>
+      <c r="EN8" s="69"/>
+      <c r="EO8" s="69"/>
+      <c r="EP8" s="69"/>
+      <c r="EQ8" s="69"/>
+      <c r="ER8" s="69"/>
+      <c r="ES8" s="69"/>
+      <c r="ET8" s="69"/>
+      <c r="EU8" s="69"/>
+      <c r="EV8" s="69"/>
+      <c r="EW8" s="69"/>
+      <c r="EX8" s="69"/>
+      <c r="EY8" s="69"/>
+      <c r="EZ8" s="69"/>
+      <c r="FA8" s="69"/>
+      <c r="FB8" s="69"/>
+      <c r="FC8" s="69"/>
+      <c r="FD8" s="69"/>
+      <c r="FE8" s="69"/>
+      <c r="FF8" s="69"/>
+      <c r="FG8" s="69"/>
+      <c r="FH8" s="69"/>
+      <c r="FI8" s="69"/>
+      <c r="FJ8" s="69"/>
+      <c r="FK8" s="69"/>
+      <c r="FL8" s="69"/>
+      <c r="FM8" s="69"/>
+      <c r="FN8" s="69"/>
+      <c r="FO8" s="69"/>
+      <c r="FP8" s="69"/>
+      <c r="FQ8" s="69"/>
+      <c r="FR8" s="69"/>
+      <c r="FS8" s="69"/>
+      <c r="FT8" s="69"/>
+      <c r="FU8" s="69"/>
+      <c r="FV8" s="69"/>
+      <c r="FW8" s="69"/>
+      <c r="FX8" s="69"/>
+      <c r="FY8" s="69"/>
+      <c r="FZ8" s="69"/>
+      <c r="GA8" s="69"/>
+      <c r="GB8" s="69"/>
+      <c r="GC8" s="69"/>
+      <c r="GD8" s="69"/>
+      <c r="GE8" s="69"/>
+      <c r="GF8" s="69"/>
+      <c r="GG8" s="69"/>
+      <c r="GH8" s="69"/>
+      <c r="GI8" s="69"/>
+      <c r="GJ8" s="69"/>
+      <c r="GK8" s="69"/>
+      <c r="GL8" s="69"/>
+      <c r="GM8" s="69"/>
+      <c r="GN8" s="69"/>
+      <c r="GO8" s="69"/>
+      <c r="GP8" s="69"/>
+      <c r="GQ8" s="69"/>
+      <c r="GR8" s="69"/>
+      <c r="GS8" s="69"/>
+      <c r="GT8" s="69"/>
+      <c r="GU8" s="69"/>
+      <c r="GV8" s="69"/>
+      <c r="GW8" s="69"/>
+      <c r="GX8" s="69"/>
+      <c r="GY8" s="69"/>
+      <c r="GZ8" s="69"/>
+      <c r="HA8" s="69"/>
+      <c r="HB8" s="69"/>
+      <c r="HC8" s="69"/>
+      <c r="HD8" s="69"/>
+      <c r="HE8" s="69"/>
+      <c r="HF8" s="69"/>
+      <c r="HG8" s="69"/>
+      <c r="HH8" s="69"/>
+      <c r="HI8" s="69"/>
+      <c r="HJ8" s="69"/>
+      <c r="HK8" s="69"/>
+      <c r="HL8" s="69"/>
+      <c r="HM8" s="69"/>
+      <c r="HN8" s="69"/>
+      <c r="HO8" s="69"/>
+      <c r="HP8" s="69"/>
+      <c r="HQ8" s="69"/>
+      <c r="HR8" s="69"/>
+      <c r="HS8" s="69"/>
+      <c r="HT8" s="69"/>
+      <c r="HU8" s="69"/>
+      <c r="HV8" s="69"/>
+      <c r="HW8" s="69"/>
+      <c r="HX8" s="69"/>
+      <c r="HY8" s="69"/>
+      <c r="HZ8" s="69"/>
+      <c r="IA8" s="69"/>
+      <c r="IB8" s="69"/>
+      <c r="IC8" s="69"/>
+      <c r="ID8" s="69"/>
+      <c r="IE8" s="69"/>
+      <c r="IF8" s="69"/>
+      <c r="IG8" s="69"/>
+      <c r="IH8" s="69"/>
+      <c r="II8" s="69"/>
+      <c r="IJ8" s="69"/>
+      <c r="IK8" s="69"/>
+      <c r="IL8" s="69"/>
+      <c r="IM8" s="69"/>
+      <c r="IN8" s="69"/>
+      <c r="IO8" s="69"/>
+      <c r="IP8" s="69"/>
+      <c r="IQ8" s="69"/>
+      <c r="IR8" s="69"/>
+      <c r="IS8" s="69"/>
+      <c r="IT8" s="69"/>
+      <c r="IU8" s="69"/>
+      <c r="IV8" s="70"/>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="59" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="61" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="63">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="63">
         <f>B12*B$5+B$6</f>
         <v>38</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="63">
         <f>B12*C$5+C$6</f>
         <v>182</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="63">
         <f>B12*D$5+D$6</f>
         <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="65">
         <v>35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="65">
         <f>B13*B$5+B$6</f>
         <v>47.5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="65">
         <f>B13*C$5+C$6</f>
         <v>220</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="65">
         <f>B13*D$5+D$6</f>
         <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="67">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="63">
         <f t="shared" ref="C14:C17" si="0">B14*B$5+B$6</f>
         <v>36.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="63">
         <f t="shared" ref="D14:D17" si="1">B14*C$5+C$6</f>
         <v>176</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="63">
         <f t="shared" ref="E14:E17" si="2">B14*D$5+D$6</f>
         <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="65">
         <v>4</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="65">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="65">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="65">
         <f t="shared" si="2"/>
         <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="67">
         <v>36</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="63">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="63">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="63">
         <f t="shared" si="2"/>
         <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="65">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="65">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="65">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="65">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="61" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="B21" s="63">
+        <v>0</v>
+      </c>
+      <c r="C21" s="63">
         <v>32200</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="63">
         <v>8260</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="63">
         <v>16240</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="63">
         <v>74900</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="63">
         <v>19600</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="65">
         <v>32200</v>
       </c>
-      <c r="C22" s="28">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="65">
+        <v>0</v>
+      </c>
+      <c r="D22" s="65">
         <v>10500</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="65">
         <v>29260</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="65">
         <v>24808</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="65">
         <v>22400</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="67">
         <v>8260</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="67">
         <v>10500</v>
       </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="67">
         <v>21560</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="67">
         <v>78330</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="67">
         <v>20860</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="65">
         <v>16240</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="65">
         <v>29260</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="65">
         <v>21560</v>
       </c>
-      <c r="E24" s="28">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
+      <c r="E24" s="65">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65">
         <v>78050</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="65">
         <v>19600</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="67">
         <v>74900</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="67">
         <v>24808</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="67">
         <v>78330</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="67">
         <v>78050</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="F25" s="67">
+        <v>0</v>
+      </c>
+      <c r="G25" s="67">
         <v>77000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="65">
         <v>19600</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="65">
         <v>22400</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="65">
         <v>20860</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="65">
         <v>19600</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="65">
         <v>77000</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="74">
         <v>320</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="74">
         <v>270</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="74">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="14">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="50">
+        <v>0</v>
+      </c>
+      <c r="C34" s="50">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="50">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="50">
         <v>0.121</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="50">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="50">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="51">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="51">
+        <v>0</v>
+      </c>
+      <c r="D35" s="51">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="51">
         <v>0.3</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="51">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="52">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="52">
+        <v>0</v>
+      </c>
+      <c r="E36" s="52">
         <v>3.1E-2</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="52">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="51">
         <v>0.121</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="51">
         <v>0.3</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="51">
         <v>3.1E-2</v>
       </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="51">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="52">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="52">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
+      <c r="F38" s="52">
+        <v>0</v>
+      </c>
+      <c r="G38" s="52">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="51">
         <v>3.1E-2</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="51">
         <v>5.5E-2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="59" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="63">
         <v>16800</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="63">
         <v>4800</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="63">
         <v>2400</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="63">
         <f>SUM(B43:D43)</f>
         <v>24000</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="63">
         <f>B43*0.5+C43*2+D43*12</f>
         <v>46800</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="65">
         <v>4800</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="65">
         <v>12000</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="65">
         <v>7200</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="65">
         <f t="shared" ref="E44:E48" si="3">SUM(B44:D44)</f>
         <v>24000</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="65">
         <f t="shared" ref="F44:F48" si="4">B44*0.5+C44*2+D44*12</f>
         <v>112800</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="67">
         <v>7200</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="67">
         <v>3600</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="67">
         <v>1200</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="67">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="67">
         <f t="shared" si="4"/>
         <v>25200</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="65">
         <v>4500</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="65">
         <v>10500</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="65">
         <v>15000</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="65">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="65">
         <f t="shared" si="4"/>
         <v>203250</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="67">
         <v>2400</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="67">
         <v>8400</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="67">
         <v>13200.000000000002</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="67">
         <f t="shared" si="3"/>
         <v>24000</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="67">
         <f t="shared" si="4"/>
         <v>176400.00000000003</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="65">
         <v>1200</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="65">
         <v>2400</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="65">
         <v>2400</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="65">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="65">
         <f t="shared" si="4"/>
         <v>34200</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="78">
         <f>SUM(B43:B48)</f>
         <v>36900</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="78">
         <f t="shared" ref="C49:F49" si="5">SUM(C43:C48)</f>
         <v>41700</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="78">
         <f t="shared" si="5"/>
         <v>41400</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="78">
         <f t="shared" si="5"/>
         <v>120000</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="78">
         <f t="shared" si="5"/>
         <v>598650</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="59" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="80">
         <v>50000</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="80">
         <v>100000</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="80">
         <v>250000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="82">
         <v>2000</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="82">
         <v>3000</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="82">
         <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="83">
         <v>10000</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="83">
         <v>17000</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="83">
         <v>30000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="82">
         <v>1000</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="82">
         <v>2000</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="82">
         <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="47">
+      <c r="B57" s="83">
         <v>10</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="83">
         <v>15</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="83">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="59" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="48">
+      <c r="B61" s="84">
         <v>0.62</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="85">
         <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="86">
         <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="85">
         <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="86">
         <v>0.85</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="85">
         <v>0.75</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="59" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="33">
-        <v>0</v>
-      </c>
-      <c r="C70" s="33">
+      <c r="B70" s="63">
+        <v>0</v>
+      </c>
+      <c r="C70" s="63">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="63">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="63">
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="63">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="63">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="65">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C71" s="34">
-        <v>0</v>
-      </c>
-      <c r="D71" s="34">
+      <c r="C71" s="65">
+        <v>0</v>
+      </c>
+      <c r="D71" s="65">
         <v>1.0500000000000002E-3</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="65">
         <v>1.575E-2</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="65">
         <v>1.0500000000000002E-3</v>
       </c>
-      <c r="G71" s="34">
+      <c r="G71" s="65">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="35">
+      <c r="B72" s="67">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="67">
         <v>1.0500000000000002E-3</v>
       </c>
-      <c r="D72" s="35">
-        <v>0</v>
-      </c>
-      <c r="E72" s="35">
+      <c r="D72" s="67">
+        <v>0</v>
+      </c>
+      <c r="E72" s="67">
         <v>1.575E-2</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="67">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="67">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="65">
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="65">
         <v>2.6250000000000002E-2</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="65">
         <v>3.15E-2</v>
       </c>
-      <c r="E73" s="34">
-        <v>0</v>
-      </c>
-      <c r="F73" s="34">
+      <c r="E73" s="65">
+        <v>0</v>
+      </c>
+      <c r="F73" s="65">
         <v>2.6250000000000002E-2</v>
       </c>
-      <c r="G73" s="34">
+      <c r="G73" s="65">
         <v>2.6250000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="35">
+      <c r="B74" s="67">
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="67">
         <v>1.0500000000000002E-3</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="67">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="67">
         <v>1.575E-2</v>
       </c>
-      <c r="F74" s="35">
-        <v>0</v>
-      </c>
-      <c r="G74" s="35">
+      <c r="F74" s="67">
+        <v>0</v>
+      </c>
+      <c r="G74" s="67">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="34">
+      <c r="B75" s="65">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="65">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="D75" s="34">
+      <c r="D75" s="65">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="65">
         <v>2.6250000000000002E-2</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="65">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="G75" s="34">
+      <c r="G75" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="59" t="s">
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="59" t="s">
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
+      <c r="N78" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
+      <c r="O78" s="88"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="88"/>
+      <c r="S78" s="88"/>
     </row>
     <row r="79" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="58"/>
-      <c r="B79" s="39" t="s">
+      <c r="A79" s="89"/>
+      <c r="B79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="P79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="Q79" s="39" t="s">
+      <c r="Q79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="R79" s="39" t="s">
+      <c r="R79" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="S79" s="39" t="s">
+      <c r="S79" s="90" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80" s="92">
         <v>2.1</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="92">
         <v>2.5</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="92">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="92">
         <v>2</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="92">
         <v>2.5</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="92">
         <v>2.35</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="92">
         <v>2.75</v>
       </c>
-      <c r="I80" s="41">
+      <c r="I80" s="92">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="92">
         <v>3.2</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="92">
         <v>2.9</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="92">
         <v>4</v>
       </c>
-      <c r="M80" s="41">
+      <c r="M80" s="92">
         <v>3.8</v>
       </c>
-      <c r="N80" s="41">
+      <c r="N80" s="92">
         <v>12.5</v>
       </c>
-      <c r="O80" s="41">
+      <c r="O80" s="92">
         <v>12.2</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="92">
         <v>12.3</v>
       </c>
-      <c r="Q80" s="41">
+      <c r="Q80" s="92">
         <v>12.55</v>
       </c>
-      <c r="R80" s="41">
+      <c r="R80" s="92">
         <v>12.05</v>
       </c>
-      <c r="S80" s="41">
+      <c r="S80" s="92">
         <v>12.25</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="36">
-        <v>0</v>
-      </c>
-      <c r="C84" s="36">
+      <c r="B84" s="50">
+        <v>0</v>
+      </c>
+      <c r="C84" s="50">
         <v>0.32</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="50">
         <v>0.64</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="50">
         <v>2.12</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="50">
         <v>0.37</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="50">
         <v>2.08</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="51">
         <v>0.78</v>
       </c>
-      <c r="C85" s="37">
-        <v>0</v>
-      </c>
-      <c r="D85" s="37">
+      <c r="C85" s="51">
+        <v>0</v>
+      </c>
+      <c r="D85" s="51">
         <v>2.08</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E85" s="51">
         <v>1.08</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="51">
         <v>1.3</v>
       </c>
-      <c r="G85" s="37">
+      <c r="G85" s="51">
         <v>2.77</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="52">
         <v>0.78</v>
       </c>
-      <c r="C86" s="38">
+      <c r="C86" s="52">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D86" s="38">
-        <v>0</v>
-      </c>
-      <c r="E86" s="38">
+      <c r="D86" s="52">
+        <v>0</v>
+      </c>
+      <c r="E86" s="52">
         <v>1.7</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="52">
         <v>0.89</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="52">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="51">
         <v>0.91</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C87" s="51">
         <v>1.34</v>
       </c>
-      <c r="D87" s="37">
+      <c r="D87" s="51">
         <v>1.72</v>
       </c>
-      <c r="E87" s="37">
-        <v>0</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="E87" s="51">
+        <v>0</v>
+      </c>
+      <c r="F87" s="51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G87" s="37">
+      <c r="G87" s="51">
         <v>0.88</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B88" s="52">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C88" s="38">
+      <c r="C88" s="52">
         <v>0.9</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="52">
         <v>0.87</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F88" s="38">
-        <v>0</v>
-      </c>
-      <c r="G88" s="38">
+      <c r="F88" s="52">
+        <v>0</v>
+      </c>
+      <c r="G88" s="52">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="51">
         <v>2.25</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="51">
         <v>2.97</v>
       </c>
-      <c r="D89" s="37">
+      <c r="D89" s="51">
         <v>2.7</v>
       </c>
-      <c r="E89" s="37">
+      <c r="E89" s="51">
         <v>1.76</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="51">
         <v>2.41</v>
       </c>
-      <c r="G89" s="37">
+      <c r="G89" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="51">
+      <c r="B93" s="50">
         <v>3.55</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="51">
         <v>1.8</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="53">
+      <c r="B95" s="52">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="51">
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="53">
+      <c r="B97" s="52">
         <v>0.89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="51">
         <v>2.89</v>
       </c>
     </row>
@@ -4564,15 +4623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4622,7 +4681,7 @@
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="7">
@@ -4636,270 +4695,270 @@
       </c>
     </row>
     <row r="8" spans="1:256" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>0.25</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>0.9</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>4.5</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BS8" s="43"/>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="43"/>
-      <c r="BV8" s="43"/>
-      <c r="BW8" s="43"/>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
-      <c r="DA8" s="43"/>
-      <c r="DB8" s="43"/>
-      <c r="DC8" s="43"/>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
-      <c r="DI8" s="43"/>
-      <c r="DJ8" s="43"/>
-      <c r="DK8" s="43"/>
-      <c r="DL8" s="43"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="43"/>
-      <c r="DP8" s="43"/>
-      <c r="DQ8" s="43"/>
-      <c r="DR8" s="43"/>
-      <c r="DS8" s="43"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="43"/>
-      <c r="DW8" s="43"/>
-      <c r="DX8" s="43"/>
-      <c r="DY8" s="43"/>
-      <c r="DZ8" s="43"/>
-      <c r="EA8" s="43"/>
-      <c r="EB8" s="43"/>
-      <c r="EC8" s="43"/>
-      <c r="ED8" s="43"/>
-      <c r="EE8" s="43"/>
-      <c r="EF8" s="43"/>
-      <c r="EG8" s="43"/>
-      <c r="EH8" s="43"/>
-      <c r="EI8" s="43"/>
-      <c r="EJ8" s="43"/>
-      <c r="EK8" s="43"/>
-      <c r="EL8" s="43"/>
-      <c r="EM8" s="43"/>
-      <c r="EN8" s="43"/>
-      <c r="EO8" s="43"/>
-      <c r="EP8" s="43"/>
-      <c r="EQ8" s="43"/>
-      <c r="ER8" s="43"/>
-      <c r="ES8" s="43"/>
-      <c r="ET8" s="43"/>
-      <c r="EU8" s="43"/>
-      <c r="EV8" s="43"/>
-      <c r="EW8" s="43"/>
-      <c r="EX8" s="43"/>
-      <c r="EY8" s="43"/>
-      <c r="EZ8" s="43"/>
-      <c r="FA8" s="43"/>
-      <c r="FB8" s="43"/>
-      <c r="FC8" s="43"/>
-      <c r="FD8" s="43"/>
-      <c r="FE8" s="43"/>
-      <c r="FF8" s="43"/>
-      <c r="FG8" s="43"/>
-      <c r="FH8" s="43"/>
-      <c r="FI8" s="43"/>
-      <c r="FJ8" s="43"/>
-      <c r="FK8" s="43"/>
-      <c r="FL8" s="43"/>
-      <c r="FM8" s="43"/>
-      <c r="FN8" s="43"/>
-      <c r="FO8" s="43"/>
-      <c r="FP8" s="43"/>
-      <c r="FQ8" s="43"/>
-      <c r="FR8" s="43"/>
-      <c r="FS8" s="43"/>
-      <c r="FT8" s="43"/>
-      <c r="FU8" s="43"/>
-      <c r="FV8" s="43"/>
-      <c r="FW8" s="43"/>
-      <c r="FX8" s="43"/>
-      <c r="FY8" s="43"/>
-      <c r="FZ8" s="43"/>
-      <c r="GA8" s="43"/>
-      <c r="GB8" s="43"/>
-      <c r="GC8" s="43"/>
-      <c r="GD8" s="43"/>
-      <c r="GE8" s="43"/>
-      <c r="GF8" s="43"/>
-      <c r="GG8" s="43"/>
-      <c r="GH8" s="43"/>
-      <c r="GI8" s="43"/>
-      <c r="GJ8" s="43"/>
-      <c r="GK8" s="43"/>
-      <c r="GL8" s="43"/>
-      <c r="GM8" s="43"/>
-      <c r="GN8" s="43"/>
-      <c r="GO8" s="43"/>
-      <c r="GP8" s="43"/>
-      <c r="GQ8" s="43"/>
-      <c r="GR8" s="43"/>
-      <c r="GS8" s="43"/>
-      <c r="GT8" s="43"/>
-      <c r="GU8" s="43"/>
-      <c r="GV8" s="43"/>
-      <c r="GW8" s="43"/>
-      <c r="GX8" s="43"/>
-      <c r="GY8" s="43"/>
-      <c r="GZ8" s="43"/>
-      <c r="HA8" s="43"/>
-      <c r="HB8" s="43"/>
-      <c r="HC8" s="43"/>
-      <c r="HD8" s="43"/>
-      <c r="HE8" s="43"/>
-      <c r="HF8" s="43"/>
-      <c r="HG8" s="43"/>
-      <c r="HH8" s="43"/>
-      <c r="HI8" s="43"/>
-      <c r="HJ8" s="43"/>
-      <c r="HK8" s="43"/>
-      <c r="HL8" s="43"/>
-      <c r="HM8" s="43"/>
-      <c r="HN8" s="43"/>
-      <c r="HO8" s="43"/>
-      <c r="HP8" s="43"/>
-      <c r="HQ8" s="43"/>
-      <c r="HR8" s="43"/>
-      <c r="HS8" s="43"/>
-      <c r="HT8" s="43"/>
-      <c r="HU8" s="43"/>
-      <c r="HV8" s="43"/>
-      <c r="HW8" s="43"/>
-      <c r="HX8" s="43"/>
-      <c r="HY8" s="43"/>
-      <c r="HZ8" s="43"/>
-      <c r="IA8" s="43"/>
-      <c r="IB8" s="43"/>
-      <c r="IC8" s="43"/>
-      <c r="ID8" s="43"/>
-      <c r="IE8" s="43"/>
-      <c r="IF8" s="43"/>
-      <c r="IG8" s="43"/>
-      <c r="IH8" s="43"/>
-      <c r="II8" s="43"/>
-      <c r="IJ8" s="43"/>
-      <c r="IK8" s="43"/>
-      <c r="IL8" s="43"/>
-      <c r="IM8" s="43"/>
-      <c r="IN8" s="43"/>
-      <c r="IO8" s="43"/>
-      <c r="IP8" s="43"/>
-      <c r="IQ8" s="43"/>
-      <c r="IR8" s="43"/>
-      <c r="IS8" s="43"/>
-      <c r="IT8" s="43"/>
-      <c r="IU8" s="43"/>
-      <c r="IV8" s="44"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="42"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="42"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="42"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="42"/>
+      <c r="CD8" s="42"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="42"/>
+      <c r="CJ8" s="42"/>
+      <c r="CK8" s="42"/>
+      <c r="CL8" s="42"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="42"/>
+      <c r="CR8" s="42"/>
+      <c r="CS8" s="42"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="42"/>
+      <c r="CX8" s="42"/>
+      <c r="CY8" s="42"/>
+      <c r="CZ8" s="42"/>
+      <c r="DA8" s="42"/>
+      <c r="DB8" s="42"/>
+      <c r="DC8" s="42"/>
+      <c r="DD8" s="42"/>
+      <c r="DE8" s="42"/>
+      <c r="DF8" s="42"/>
+      <c r="DG8" s="42"/>
+      <c r="DH8" s="42"/>
+      <c r="DI8" s="42"/>
+      <c r="DJ8" s="42"/>
+      <c r="DK8" s="42"/>
+      <c r="DL8" s="42"/>
+      <c r="DM8" s="42"/>
+      <c r="DN8" s="42"/>
+      <c r="DO8" s="42"/>
+      <c r="DP8" s="42"/>
+      <c r="DQ8" s="42"/>
+      <c r="DR8" s="42"/>
+      <c r="DS8" s="42"/>
+      <c r="DT8" s="42"/>
+      <c r="DU8" s="42"/>
+      <c r="DV8" s="42"/>
+      <c r="DW8" s="42"/>
+      <c r="DX8" s="42"/>
+      <c r="DY8" s="42"/>
+      <c r="DZ8" s="42"/>
+      <c r="EA8" s="42"/>
+      <c r="EB8" s="42"/>
+      <c r="EC8" s="42"/>
+      <c r="ED8" s="42"/>
+      <c r="EE8" s="42"/>
+      <c r="EF8" s="42"/>
+      <c r="EG8" s="42"/>
+      <c r="EH8" s="42"/>
+      <c r="EI8" s="42"/>
+      <c r="EJ8" s="42"/>
+      <c r="EK8" s="42"/>
+      <c r="EL8" s="42"/>
+      <c r="EM8" s="42"/>
+      <c r="EN8" s="42"/>
+      <c r="EO8" s="42"/>
+      <c r="EP8" s="42"/>
+      <c r="EQ8" s="42"/>
+      <c r="ER8" s="42"/>
+      <c r="ES8" s="42"/>
+      <c r="ET8" s="42"/>
+      <c r="EU8" s="42"/>
+      <c r="EV8" s="42"/>
+      <c r="EW8" s="42"/>
+      <c r="EX8" s="42"/>
+      <c r="EY8" s="42"/>
+      <c r="EZ8" s="42"/>
+      <c r="FA8" s="42"/>
+      <c r="FB8" s="42"/>
+      <c r="FC8" s="42"/>
+      <c r="FD8" s="42"/>
+      <c r="FE8" s="42"/>
+      <c r="FF8" s="42"/>
+      <c r="FG8" s="42"/>
+      <c r="FH8" s="42"/>
+      <c r="FI8" s="42"/>
+      <c r="FJ8" s="42"/>
+      <c r="FK8" s="42"/>
+      <c r="FL8" s="42"/>
+      <c r="FM8" s="42"/>
+      <c r="FN8" s="42"/>
+      <c r="FO8" s="42"/>
+      <c r="FP8" s="42"/>
+      <c r="FQ8" s="42"/>
+      <c r="FR8" s="42"/>
+      <c r="FS8" s="42"/>
+      <c r="FT8" s="42"/>
+      <c r="FU8" s="42"/>
+      <c r="FV8" s="42"/>
+      <c r="FW8" s="42"/>
+      <c r="FX8" s="42"/>
+      <c r="FY8" s="42"/>
+      <c r="FZ8" s="42"/>
+      <c r="GA8" s="42"/>
+      <c r="GB8" s="42"/>
+      <c r="GC8" s="42"/>
+      <c r="GD8" s="42"/>
+      <c r="GE8" s="42"/>
+      <c r="GF8" s="42"/>
+      <c r="GG8" s="42"/>
+      <c r="GH8" s="42"/>
+      <c r="GI8" s="42"/>
+      <c r="GJ8" s="42"/>
+      <c r="GK8" s="42"/>
+      <c r="GL8" s="42"/>
+      <c r="GM8" s="42"/>
+      <c r="GN8" s="42"/>
+      <c r="GO8" s="42"/>
+      <c r="GP8" s="42"/>
+      <c r="GQ8" s="42"/>
+      <c r="GR8" s="42"/>
+      <c r="GS8" s="42"/>
+      <c r="GT8" s="42"/>
+      <c r="GU8" s="42"/>
+      <c r="GV8" s="42"/>
+      <c r="GW8" s="42"/>
+      <c r="GX8" s="42"/>
+      <c r="GY8" s="42"/>
+      <c r="GZ8" s="42"/>
+      <c r="HA8" s="42"/>
+      <c r="HB8" s="42"/>
+      <c r="HC8" s="42"/>
+      <c r="HD8" s="42"/>
+      <c r="HE8" s="42"/>
+      <c r="HF8" s="42"/>
+      <c r="HG8" s="42"/>
+      <c r="HH8" s="42"/>
+      <c r="HI8" s="42"/>
+      <c r="HJ8" s="42"/>
+      <c r="HK8" s="42"/>
+      <c r="HL8" s="42"/>
+      <c r="HM8" s="42"/>
+      <c r="HN8" s="42"/>
+      <c r="HO8" s="42"/>
+      <c r="HP8" s="42"/>
+      <c r="HQ8" s="42"/>
+      <c r="HR8" s="42"/>
+      <c r="HS8" s="42"/>
+      <c r="HT8" s="42"/>
+      <c r="HU8" s="42"/>
+      <c r="HV8" s="42"/>
+      <c r="HW8" s="42"/>
+      <c r="HX8" s="42"/>
+      <c r="HY8" s="42"/>
+      <c r="HZ8" s="42"/>
+      <c r="IA8" s="42"/>
+      <c r="IB8" s="42"/>
+      <c r="IC8" s="42"/>
+      <c r="ID8" s="42"/>
+      <c r="IE8" s="42"/>
+      <c r="IF8" s="42"/>
+      <c r="IG8" s="42"/>
+      <c r="IH8" s="42"/>
+      <c r="II8" s="42"/>
+      <c r="IJ8" s="42"/>
+      <c r="IK8" s="42"/>
+      <c r="IL8" s="42"/>
+      <c r="IM8" s="42"/>
+      <c r="IN8" s="42"/>
+      <c r="IO8" s="42"/>
+      <c r="IP8" s="42"/>
+      <c r="IQ8" s="42"/>
+      <c r="IR8" s="42"/>
+      <c r="IS8" s="42"/>
+      <c r="IT8" s="42"/>
+      <c r="IU8" s="42"/>
+      <c r="IV8" s="43"/>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5669,13 +5728,13 @@
       <c r="A57" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="47">
+      <c r="B57" s="46">
         <v>10</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="46">
         <v>15</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="46">
         <v>18</v>
       </c>
     </row>
@@ -5685,7 +5744,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -5696,7 +5755,7 @@
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="48">
+      <c r="B61" s="47">
         <v>0.65</v>
       </c>
     </row>
@@ -5704,7 +5763,7 @@
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>0.8</v>
       </c>
     </row>
@@ -5712,7 +5771,7 @@
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="49">
         <v>0.8</v>
       </c>
     </row>
@@ -5720,7 +5779,7 @@
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="48">
         <v>0.65</v>
       </c>
     </row>
@@ -5728,7 +5787,7 @@
       <c r="A65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="49">
         <v>0.85</v>
       </c>
     </row>
@@ -5736,7 +5795,7 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="48">
         <v>0.8</v>
       </c>
     </row>
@@ -5772,22 +5831,22 @@
       <c r="A70" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="33">
-        <v>0</v>
-      </c>
-      <c r="C70" s="33">
+      <c r="B70" s="32">
+        <v>0</v>
+      </c>
+      <c r="C70" s="32">
         <v>1.155E-2</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="32">
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="32">
         <v>5.775000000000001E-2</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="32">
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="32">
         <v>1.1550000000000001E-2</v>
       </c>
     </row>
@@ -5795,22 +5854,22 @@
       <c r="A71" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="C71" s="34">
-        <v>0</v>
-      </c>
-      <c r="D71" s="34">
+      <c r="C71" s="33">
+        <v>0</v>
+      </c>
+      <c r="D71" s="33">
         <v>1.1550000000000002E-3</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="33">
         <v>1.7325E-2</v>
       </c>
-      <c r="F71" s="34">
+      <c r="F71" s="33">
         <v>1.1550000000000002E-3</v>
       </c>
-      <c r="G71" s="34">
+      <c r="G71" s="33">
         <v>5.7750000000000006E-3</v>
       </c>
     </row>
@@ -5818,22 +5877,22 @@
       <c r="A72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="35">
+      <c r="B72" s="34">
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="34">
         <v>1.1550000000000002E-3</v>
       </c>
-      <c r="D72" s="35">
-        <v>0</v>
-      </c>
-      <c r="E72" s="35">
+      <c r="D72" s="34">
+        <v>0</v>
+      </c>
+      <c r="E72" s="34">
         <v>1.7325E-2</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="34">
         <v>5.7750000000000006E-3</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="34">
         <v>5.7750000000000006E-3</v>
       </c>
     </row>
@@ -5841,22 +5900,22 @@
       <c r="A73" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="33">
         <v>5.775000000000001E-2</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="33">
         <v>2.8875000000000005E-2</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="33">
         <v>3.465E-2</v>
       </c>
-      <c r="E73" s="34">
-        <v>0</v>
-      </c>
-      <c r="F73" s="34">
+      <c r="E73" s="33">
+        <v>0</v>
+      </c>
+      <c r="F73" s="33">
         <v>2.8875000000000005E-2</v>
       </c>
-      <c r="G73" s="34">
+      <c r="G73" s="33">
         <v>2.8875000000000005E-2</v>
       </c>
     </row>
@@ -5864,22 +5923,22 @@
       <c r="A74" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="35">
+      <c r="B74" s="34">
         <v>2.3100000000000004E-3</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="34">
         <v>1.1550000000000002E-3</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="34">
         <v>5.7750000000000006E-3</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="34">
         <v>1.7325E-2</v>
       </c>
-      <c r="F74" s="35">
-        <v>0</v>
-      </c>
-      <c r="G74" s="35">
+      <c r="F74" s="34">
+        <v>0</v>
+      </c>
+      <c r="G74" s="34">
         <v>5.7750000000000006E-3</v>
       </c>
     </row>
@@ -5887,22 +5946,22 @@
       <c r="A75" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="34">
+      <c r="B75" s="33">
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="33">
         <v>5.7750000000000006E-3</v>
       </c>
-      <c r="D75" s="34">
+      <c r="D75" s="33">
         <v>5.7750000000000006E-3</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="33">
         <v>2.8875000000000005E-2</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="33">
         <v>5.7750000000000006E-3</v>
       </c>
-      <c r="G75" s="34">
+      <c r="G75" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5912,147 +5971,147 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="59" t="s">
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="59" t="s">
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
     </row>
     <row r="79" spans="1:19" ht="16.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="58"/>
-      <c r="B79" s="39" t="s">
+      <c r="A79" s="55"/>
+      <c r="B79" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="P79" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q79" s="39" t="s">
+      <c r="Q79" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R79" s="39" t="s">
+      <c r="R79" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S79" s="39" t="s">
+      <c r="S79" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80" s="40">
         <v>2.1</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="40">
         <v>2.5</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="40">
         <v>2</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="40">
         <v>2.5</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="40">
         <v>2.35</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="40">
         <v>2.75</v>
       </c>
-      <c r="I80" s="41">
+      <c r="I80" s="40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="40">
         <v>3.2</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="40">
         <v>2.9</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="40">
         <v>4</v>
       </c>
-      <c r="M80" s="41">
+      <c r="M80" s="40">
         <v>3.8</v>
       </c>
-      <c r="N80" s="41">
+      <c r="N80" s="40">
         <v>12.5</v>
       </c>
-      <c r="O80" s="41">
+      <c r="O80" s="40">
         <v>12.2</v>
       </c>
-      <c r="P80" s="41">
+      <c r="P80" s="40">
         <v>12.3</v>
       </c>
-      <c r="Q80" s="41">
+      <c r="Q80" s="40">
         <v>12.55</v>
       </c>
-      <c r="R80" s="41">
+      <c r="R80" s="40">
         <v>12.05</v>
       </c>
-      <c r="S80" s="41">
+      <c r="S80" s="40">
         <v>12.25</v>
       </c>
     </row>
@@ -6088,22 +6147,22 @@
       <c r="A84" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="36">
-        <v>0</v>
-      </c>
-      <c r="C84" s="36">
+      <c r="B84" s="35">
+        <v>0</v>
+      </c>
+      <c r="C84" s="35">
         <v>0.32</v>
       </c>
-      <c r="D84" s="36">
+      <c r="D84" s="35">
         <v>0.64</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="35">
         <v>2.12</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="35">
         <v>0.37</v>
       </c>
-      <c r="G84" s="36">
+      <c r="G84" s="35">
         <v>2.08</v>
       </c>
     </row>
@@ -6111,22 +6170,22 @@
       <c r="A85" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="36">
         <v>0.78</v>
       </c>
-      <c r="C85" s="37">
-        <v>0</v>
-      </c>
-      <c r="D85" s="37">
+      <c r="C85" s="36">
+        <v>0</v>
+      </c>
+      <c r="D85" s="36">
         <v>2.08</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E85" s="36">
         <v>1.08</v>
       </c>
-      <c r="F85" s="37">
+      <c r="F85" s="36">
         <v>1.3</v>
       </c>
-      <c r="G85" s="37">
+      <c r="G85" s="36">
         <v>2.77</v>
       </c>
     </row>
@@ -6134,22 +6193,22 @@
       <c r="A86" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="37">
         <v>0.78</v>
       </c>
-      <c r="C86" s="38">
+      <c r="C86" s="37">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D86" s="38">
-        <v>0</v>
-      </c>
-      <c r="E86" s="38">
+      <c r="D86" s="37">
+        <v>0</v>
+      </c>
+      <c r="E86" s="37">
         <v>1.7</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="37">
         <v>0.89</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="37">
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -6157,22 +6216,22 @@
       <c r="A87" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="36">
         <v>0.91</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C87" s="36">
         <v>1.34</v>
       </c>
-      <c r="D87" s="37">
+      <c r="D87" s="36">
         <v>1.72</v>
       </c>
-      <c r="E87" s="37">
-        <v>0</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="E87" s="36">
+        <v>0</v>
+      </c>
+      <c r="F87" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G87" s="37">
+      <c r="G87" s="36">
         <v>0.88</v>
       </c>
     </row>
@@ -6180,22 +6239,22 @@
       <c r="A88" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B88" s="37">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C88" s="38">
+      <c r="C88" s="37">
         <v>0.9</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="37">
         <v>0.87</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F88" s="38">
-        <v>0</v>
-      </c>
-      <c r="G88" s="38">
+      <c r="F88" s="37">
+        <v>0</v>
+      </c>
+      <c r="G88" s="37">
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -6203,22 +6262,22 @@
       <c r="A89" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="36">
         <v>2.25</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="36">
         <v>2.97</v>
       </c>
-      <c r="D89" s="37">
+      <c r="D89" s="36">
         <v>2.7</v>
       </c>
-      <c r="E89" s="37">
+      <c r="E89" s="36">
         <v>1.76</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="36">
         <v>2.41</v>
       </c>
-      <c r="G89" s="37">
+      <c r="G89" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6239,7 +6298,7 @@
       <c r="A93" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="51">
+      <c r="B93" s="50">
         <v>3.55</v>
       </c>
     </row>
@@ -6247,7 +6306,7 @@
       <c r="A94" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="52">
+      <c r="B94" s="51">
         <v>1.8</v>
       </c>
     </row>
@@ -6255,7 +6314,7 @@
       <c r="A95" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="53">
+      <c r="B95" s="52">
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -6263,7 +6322,7 @@
       <c r="A96" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="51">
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -6271,7 +6330,7 @@
       <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="53">
+      <c r="B97" s="52">
         <v>0.89</v>
       </c>
     </row>
@@ -6279,7 +6338,7 @@
       <c r="A98" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="52">
+      <c r="B98" s="51">
         <v>2.89</v>
       </c>
     </row>
